--- a/biology/Botanique/Jardin_botanique_de_Kyōto/Jardin_botanique_de_Kyōto.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Kyōto/Jardin_botanique_de_Kyōto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Ky%C5%8Dto</t>
+          <t>Jardin_botanique_de_Kyōto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique de Kyōto (京都府立植物園, Kyōto furitsu shokubutsuen?) est un jardin botanique japonais situé à l'extérieur de la ville de Kyōto, au Japon. Avec ses collections de quelque 12 000 espèces et sous-espèces de plantes, c'est l'un des jardins botaniques les plus importants du Japon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Ky%C5%8Dto</t>
+          <t>Jardin_botanique_de_Kyōto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été créé en 1924. À l'abandon après la Seconde Guerre mondiale, il a été restauré en 1961.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_Ky%C5%8Dto</t>
+          <t>Jardin_botanique_de_Kyōto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2011, le jardin botanique de Kyōto s'étend sur 240 000 m2. Il contient quelque 12 000 espèces de plantes, et est organisé en grands aires : le jardin des bambous ; l'exposition de bonsaïs ; le jardin des camélias ; les cerisiers ; le jardin de style européen ; le lit de fleurs ; le jardin des hortensias ; le jardin des plantes japonaises indigènes ; l'étang des lotus ; l'étang Nakaragi-no-mori (arbres indigènes originaires du bassin du Yamashiro); le jardin des plantes vivaces et utiles ; le jardin Sunken et la grotte Uma.
 			Le jardin Sunken.
